--- a/已完成文档/05-功能测试书.xlsx
+++ b/已完成文档/05-功能测试书.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的桌面\donruan\neusoft-java\已完成文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC9AFBD-4F7F-4D68-AB1F-22E531B38698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA4265-F7D9-49CF-9ED3-01F77588B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="249">
   <si>
     <r>
       <rPr>
@@ -601,6 +601,502 @@
   </si>
   <si>
     <t>根据当前状态查询</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库中预投1条数据。输入处方单号为"20220701120"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一条处方单号显示"20220701121"的信息显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入处方单号为"20220701121"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入医生姓名为为"Larry Anner"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入医生姓名为为"二胖医生"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>有六条医生名为二胖医生的信息显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入患者姓名为"Larry Anner"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入患者姓名为"Bernard"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两条患者姓名为"Bernard”的信息显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择当前状态为"已发放"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部数据都是已发放状态</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部数据都是未发放状态</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择当前状态为"未发放"的信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改科室信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改科室名称、科室介绍</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改科室名称为空、科室介绍为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改，有提示信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改，提示科室名称、科室介绍不能为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改科室名称为"眼科"，科室介绍为眼科介绍</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，并提示"修改成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增科室信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增科室编码为4位英文字母，科室介绍、科室类别、科室名称分别为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改，提示科室编码"必须为数字且为三位"、科室介绍、科室类别、科室名称不能为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增科室信息，输入科室编码、科室介绍、科室类别、科室名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增科室编码为3位数字，科室介绍、科室类别、科室名称分别填写</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法添加，有提示信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，并显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功，并提示"添加成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息，包括用户头像、用户姓名、用户生日</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户名称为空，用户头像和生日不修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改，并显示信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改提示用户姓名不得为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户名称为"小华"，用户头像和生日不修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户信息，包括用户名称、用户性别、用户生日、用户身份证号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户姓名、性别、生日为空，身份证号为11位数字</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增失败，并显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法新增并显示"用户名称不能为空"、"用户性别不能为空"、"用户生日不得为空"、"用户身份证号格式错误"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户姓名、性别、生日填写，身份证号为18位真实身份证号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增成功，并显示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除和批量删除用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除单个用户信息，点击操作删除按钮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除多个用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除订单表存在的用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败提示"用户数据在订单表，不可删除"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出用户信息，导出模板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导出全部信息，点击导出全部信息按钮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击导出全部信息，点击导出模板信息按钮</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出成功</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出成功，信息也写入进去</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出模板成功</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入用户信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误模板导入</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入失败，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入失败，提示"数据异常"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确模板导入</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入成功，并提示导入成功</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑常数项名称</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示"常数项值不得为空"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑常数类别信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑挂号级别</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑常数项值为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑常数项值为"男"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑挂号级别费用为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，并提示"挂号价格不得为空"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑挂号级别费用为20元</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开两个页面在其中一个界面编辑价格，第二个界面随之编辑价格</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示"请刷新界面"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看挂号级别所属医师</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击挂号级别操作栏中的查看所属医师</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示所有医师，并能查询</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑非药品信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑药品封面、药品名称、现存数量和价格都为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示响应参数不得为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确编辑药品信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作药品展示信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开关按钮，打开药品状态信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开成功，提示"修改成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开关按钮，关闭药品状态信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭成功，提示"关闭成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除药品信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择药品信息，并进行批量删除</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除成功，提示"删除成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择药品信息，并进行删除</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，并提示"删除成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增药品信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加药品信息，填写药品名称、药品现存数量、药品价格，和上传药品封面为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加失败，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除失败，提示各个参数不得为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加药品信息，填写药品名称、药品现存数量、药品价格，和上传药品封面为正常数据</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>对药品信息导入</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品信息导入</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出药品信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出药品信息，导出模板</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑医生信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑医生信息，填写医生姓名，班次，年龄，所在科室为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，提示各个参数不得为空</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑正确填写医生信息，填写医生姓名，班次，年龄，所在科室</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除医生信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除医生信息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看医生排班时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看排版时间，检查排版时间是否正确</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正常</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置排版时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置排班时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择参数检查排班时间是否能修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据的恢复和删除</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查数据的恢复和删除功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试删除功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试恢复功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复成功，并提示</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，提示"删除成功"</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复成功，提示"恢复成功"</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +1235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1008,6 +1504,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,7 +1537,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,31 +1547,193 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,145 +1748,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1481,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J49"/>
+  <dimension ref="B1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1500,12 +2058,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.399999999999999">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1513,959 +2071,1973 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="67"/>
+      <c r="J2" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="24">
-      <c r="B3" s="15"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:10" ht="46.8" customHeight="1">
-      <c r="B4" s="24">
+      <c r="B4" s="63">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="76.8" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B6" s="55">
+      <c r="B6" s="56">
         <v>2</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B7" s="56"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8"/>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="55.2" customHeight="1">
-      <c r="B8" s="56"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="4" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="57" customHeight="1">
-      <c r="B9" s="56"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="30" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="58.8" customHeight="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="4" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="55.8" customHeight="1">
-      <c r="B11" s="56"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="30" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="8"/>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="67.2" customHeight="1">
-      <c r="B12" s="57"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="8"/>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="106.05" customHeight="1">
-      <c r="B13" s="26">
+      <c r="B13" s="46">
         <v>3</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="64.2" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="30" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="I14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="52.8" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="5" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="9"/>
+      <c r="I15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="30" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="9"/>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B17" s="49"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="6" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="9"/>
+      <c r="I17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B18" s="49"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="30" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="9"/>
+      <c r="I18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" ht="76.05" customHeight="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="6" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="9"/>
+      <c r="I19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" ht="85.95" customHeight="1">
-      <c r="B20" s="26">
+      <c r="B20" s="46">
         <v>4</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="9"/>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" ht="67.95" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="9"/>
+      <c r="I21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" ht="60" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="5" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="9"/>
+      <c r="I22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B23" s="26">
+      <c r="B23" s="46">
         <v>5</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="9"/>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" ht="55.05" customHeight="1">
-      <c r="B24" s="16"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="58" t="s">
+      <c r="B24" s="47"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="9"/>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" ht="49.05" customHeight="1">
-      <c r="B25" s="27"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="5" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="8"/>
+      <c r="I25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="61.05" customHeight="1">
-      <c r="B26" s="44">
+      <c r="B26" s="26">
         <v>6</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="8"/>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="30" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="8"/>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" ht="40.950000000000003" customHeight="1">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="3" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="8"/>
+      <c r="I28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" ht="40.950000000000003" customHeight="1">
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="30" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="8"/>
+      <c r="I29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10" ht="42" customHeight="1">
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="3" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="8"/>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10" ht="42" customHeight="1">
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="30" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="8"/>
+      <c r="I31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="2:10" ht="42" customHeight="1">
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="3" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="8"/>
+      <c r="I32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="2:10" ht="65.400000000000006" customHeight="1">
-      <c r="B33" s="44">
+      <c r="B33" s="26">
         <v>7</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="60"/>
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="2:10" ht="38.4" customHeight="1">
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="30" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="60"/>
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="2:10" ht="36" customHeight="1">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="3" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="60"/>
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="2:10" ht="45" customHeight="1">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="45" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="60"/>
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10" ht="48.6" customHeight="1">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="3" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="60"/>
+      <c r="I37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="2:10" ht="38.4" customHeight="1">
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="45" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="60"/>
+      <c r="I38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="2:10" ht="33.6" customHeight="1">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="3" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="60"/>
+      <c r="I39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="2:10" ht="68.400000000000006" customHeight="1">
-      <c r="B40" s="62">
+      <c r="B40" s="10">
         <v>8</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="29"/>
+      <c r="E40" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="60"/>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="2:10" ht="63.6" customHeight="1">
-      <c r="B41" s="44">
+      <c r="B41" s="26">
         <v>9</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
+      <c r="I41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="2:10" ht="27.6" customHeight="1">
-      <c r="B42" s="44"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="30" t="s">
+      <c r="B42" s="26"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="F42" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" ht="26.4" customHeight="1">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" ht="31.2" customHeight="1">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="30" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10" ht="22.2" customHeight="1">
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="2:10" ht="21.6" customHeight="1">
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="30" t="s">
+      <c r="F44" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="2:10" ht="33" customHeight="1">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" ht="30" customHeight="1">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:10" ht="26.4" customHeight="1">
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:10" ht="22.8" customHeight="1">
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="30" t="s">
+      <c r="F46" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" ht="39" customHeight="1">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" ht="34.200000000000003" customHeight="1">
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="2:10" ht="22.2" customHeight="1">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="F48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="2:10" ht="39.6" customHeight="1">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="2:10" ht="27" customHeight="1">
+      <c r="B50" s="26">
+        <v>10</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="2:10" ht="32.4" customHeight="1">
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="2:10" ht="57.6" customHeight="1">
+      <c r="B52" s="26">
+        <v>11</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="2:10" ht="59.4" customHeight="1">
+      <c r="B53" s="26"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="25"/>
+    </row>
+    <row r="54" spans="2:10" ht="52.8" customHeight="1">
+      <c r="B54" s="26">
+        <v>12</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="2:10" ht="50.4" customHeight="1">
+      <c r="B55" s="26"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="2:10" ht="49.8" customHeight="1">
+      <c r="B56" s="26">
+        <v>13</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="2:10" ht="40.200000000000003" customHeight="1">
+      <c r="B57" s="26"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="2:10" ht="31.2" customHeight="1">
+      <c r="B58" s="26">
+        <v>14</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="2:10" ht="25.2" customHeight="1">
+      <c r="B59" s="26"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="2:10" ht="38.4" customHeight="1">
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="2:10" ht="32.4" customHeight="1">
+      <c r="B61" s="26">
+        <v>15</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="2:10" ht="30.6" customHeight="1">
+      <c r="B62" s="26"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="2:10" ht="33.6" customHeight="1">
+      <c r="B63" s="26">
+        <v>16</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="2:10" ht="29.4" customHeight="1">
+      <c r="B64" s="26"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="2:10" ht="30" customHeight="1">
+      <c r="B65" s="26">
+        <v>17</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="2:10" ht="35.4" customHeight="1">
+      <c r="B66" s="26"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="2:10" ht="34.200000000000003" customHeight="1">
+      <c r="B67" s="26">
+        <v>18</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="2:10" ht="37.799999999999997" customHeight="1">
+      <c r="B68" s="26"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="2:10" ht="44.4" customHeight="1">
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="2:10" ht="55.8" customHeight="1">
+      <c r="B70" s="13">
+        <v>19</v>
+      </c>
+      <c r="C70" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="74"/>
+      <c r="E70" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="2:10" ht="47.4" customHeight="1">
+      <c r="B71" s="26">
+        <v>20</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="2:10" ht="33.6" customHeight="1">
+      <c r="B72" s="26"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="2:10" ht="33" customHeight="1">
+      <c r="B73" s="18">
+        <v>21</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="2:10" ht="30" customHeight="1">
+      <c r="B74" s="19"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:10" ht="25.8" customHeight="1">
+      <c r="B75" s="18">
+        <v>22</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="14"/>
+    </row>
+    <row r="76" spans="2:10" ht="31.8" customHeight="1">
+      <c r="B76" s="19"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="2:10" ht="48.6" customHeight="1">
+      <c r="B77" s="18">
+        <v>23</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="2:10" ht="40.799999999999997" customHeight="1">
+      <c r="B78" s="19"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="2:10" ht="36" customHeight="1">
+      <c r="B79" s="18">
+        <v>24</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="2:10" ht="28.8" customHeight="1">
+      <c r="B80" s="19"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="14"/>
+    </row>
+    <row r="81" spans="2:10" ht="33" customHeight="1">
+      <c r="B81" s="18">
+        <v>25</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="21"/>
+      <c r="E81" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10" ht="39" customHeight="1">
+      <c r="B82" s="19"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:10" ht="34.200000000000003" customHeight="1">
+      <c r="B83" s="18">
+        <v>26</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="2:10" ht="30.6" customHeight="1">
+      <c r="B84" s="19"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="14"/>
+    </row>
+    <row r="85" spans="2:10" ht="25.8" customHeight="1">
+      <c r="B85" s="18">
+        <v>27</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="2:10" ht="27" customHeight="1">
+      <c r="B86" s="19"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="2:10" ht="28.2" customHeight="1">
+      <c r="B87" s="15">
+        <v>28</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="16"/>
+    </row>
+    <row r="88" spans="2:10" ht="39" customHeight="1">
+      <c r="B88" s="17">
+        <v>29</v>
+      </c>
+      <c r="C88" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="74"/>
+      <c r="E88" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="16"/>
+    </row>
+    <row r="89" spans="2:10" ht="32.4" customHeight="1">
+      <c r="B89" s="18">
+        <v>30</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="2:10" ht="36" customHeight="1">
+      <c r="B90" s="19"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="C41:D49"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C33:D39"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
+  <mergeCells count="101">
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="C67:D69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="C58:D60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="C26:D32"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="J2:J3"/>
@@ -2479,24 +4051,39 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="C26:D32"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B41:B49"/>
+    <mergeCell ref="C41:D49"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C33:D39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
